--- a/outputs-HGR-r202-archive/g__UMGS911_train.xlsx
+++ b/outputs-HGR-r202-archive/g__UMGS911_train.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,20 +954,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_1.fasta</t>
+          <t>label_UMGS824_0.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9985744434596682</v>
+        <v>0.9968433852531694</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001425556540309559</v>
+        <v>0.003156614746808396</v>
       </c>
       <c r="D19" t="n">
-        <v>2.219808348169187e-14</v>
+        <v>2.219812633843852e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9985744434596682</v>
+        <v>0.9968433852531694</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -978,20 +978,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_10.fasta</t>
+          <t>label_UMGS824_3.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9880347436728577</v>
+        <v>0.9049679272745422</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01196525632712012</v>
+        <v>0.09503207272542785</v>
       </c>
       <c r="D20" t="n">
-        <v>2.219827954297994e-14</v>
+        <v>2.997743732064581e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9880347436728577</v>
+        <v>0.9049679272745422</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1002,20 +1002,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_15.fasta</t>
+          <t>label_UMGS824_30.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9854333884616989</v>
+        <v>0.9870062638946123</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01456661153827896</v>
+        <v>0.01299373610536554</v>
       </c>
       <c r="D21" t="n">
-        <v>2.219845249433171e-14</v>
+        <v>2.219841276496225e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9854333884616989</v>
+        <v>0.9870062638946123</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1026,20 +1026,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_20.fasta</t>
+          <t>label_UMGS824_34.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9119265646571255</v>
+        <v>0.9957340408445485</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08807343534285239</v>
+        <v>0.004265959155429272</v>
       </c>
       <c r="D22" t="n">
-        <v>2.219957792397616e-14</v>
+        <v>2.219816194075704e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9119265646571255</v>
+        <v>0.9957340408445485</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1050,20 +1050,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_38.fasta</t>
+          <t>label_UMGS824_44.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9958476351835186</v>
+        <v>0.987867726711277</v>
       </c>
       <c r="C23" t="n">
-        <v>0.004152364816459139</v>
+        <v>0.01213227328870088</v>
       </c>
       <c r="D23" t="n">
-        <v>2.21981741427569e-14</v>
+        <v>2.219833512993341e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9958476351835186</v>
+        <v>0.987867726711277</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1074,20 +1074,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_41.fasta</t>
+          <t>label_UMGS824_46.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9147683526623415</v>
+        <v>0.9343130201405567</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08523164733763629</v>
+        <v>0.06568697985941899</v>
       </c>
       <c r="D24" t="n">
-        <v>2.219961665795107e-14</v>
+        <v>2.42978805963513e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9147683526623415</v>
+        <v>0.9343130201405567</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1098,20 +1098,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_48.fasta</t>
+          <t>label_UMGS824_57.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9897144060765755</v>
+        <v>0.9618243077610107</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01028559392340244</v>
+        <v>0.03817569223896583</v>
       </c>
       <c r="D25" t="n">
-        <v>2.219827903546603e-14</v>
+        <v>2.345915420941341e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9897144060765755</v>
+        <v>0.9618243077610107</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1122,92 +1122,92 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_49.fasta</t>
+          <t>label_UMGS824_61.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4711359067413546</v>
+        <v>0.7285191260470267</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5288640932584672</v>
+        <v>0.2714808739529189</v>
       </c>
       <c r="D26" t="n">
-        <v>1.782949028584862e-13</v>
+        <v>5.438609566064744e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5288640932584672</v>
+        <v>0.7285191260470267</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900546695</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_50.fasta</t>
+          <t>label_UMGS824_63.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9760237240649938</v>
+        <v>0.3159821528792215</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02397627593498408</v>
+        <v>0.6840178471207047</v>
       </c>
       <c r="D27" t="n">
-        <v>2.219864933409479e-14</v>
+        <v>7.382294102700043e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9760237240649938</v>
+        <v>0.6840178471207047</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900546695</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_56.fasta</t>
+          <t>label_UMGS824_70.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1645459026918817</v>
+        <v>0.5630827131946181</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8354540973079368</v>
+        <v>0.4369172868048988</v>
       </c>
       <c r="D28" t="n">
-        <v>1.816009191967265e-13</v>
+        <v>4.830209597437911e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8354540973079368</v>
+        <v>0.5630827131946181</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900546695</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_58.fasta</t>
+          <t>label_UMGS824_11.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9909634323556846</v>
+        <v>0.9872923727158148</v>
       </c>
       <c r="C29" t="n">
-        <v>0.009036567644293274</v>
+        <v>0.01270762728416285</v>
       </c>
       <c r="D29" t="n">
-        <v>2.219822841417769e-14</v>
+        <v>2.233810386178175e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9909634323556846</v>
+        <v>0.9872923727158148</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1218,20 +1218,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_62.fasta</t>
+          <t>label_UMGS824_13.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8573355641424799</v>
+        <v>0.984194361237381</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1426644358574945</v>
+        <v>0.01580563876259678</v>
       </c>
       <c r="D30" t="n">
-        <v>2.5633314689188e-14</v>
+        <v>2.219841010714205e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8573355641424799</v>
+        <v>0.984194361237381</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1242,20 +1242,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_67.fasta</t>
+          <t>label_UMGS824_16.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9859893641692545</v>
+        <v>0.9787222199401647</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01401063583072314</v>
+        <v>0.02127778005981272</v>
       </c>
       <c r="D31" t="n">
-        <v>2.219837893814934e-14</v>
+        <v>2.259020888124492e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9859893641692545</v>
+        <v>0.9787222199401647</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1266,20 +1266,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_69.fasta</t>
+          <t>label_UMGS824_17.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9455883422394258</v>
+        <v>0.8458290021672776</v>
       </c>
       <c r="C32" t="n">
-        <v>0.05441165776054103</v>
+        <v>0.1541709978326941</v>
       </c>
       <c r="D32" t="n">
-        <v>3.316276886235145e-14</v>
+        <v>2.816111700568719e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9455883422394258</v>
+        <v>0.8458290021672776</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1290,20 +1290,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_0.fasta</t>
+          <t>label_UMGS824_22.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9968433852531694</v>
+        <v>0.9948613726941462</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003156614746808396</v>
+        <v>0.005138627305831626</v>
       </c>
       <c r="D33" t="n">
-        <v>2.219812633843852e-14</v>
+        <v>2.219874904884924e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9968433852531694</v>
+        <v>0.9948613726941462</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1314,20 +1314,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_3.fasta</t>
+          <t>label_UMGS824_23.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9049679272745422</v>
+        <v>0.9857387551526477</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09503207272542785</v>
+        <v>0.01426124484732994</v>
       </c>
       <c r="D34" t="n">
-        <v>2.997743732064581e-14</v>
+        <v>2.219826205590475e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9049679272745422</v>
+        <v>0.9857387551526477</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1338,20 +1338,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_30.fasta</t>
+          <t>label_UMGS824_52.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9870062638946123</v>
+        <v>0.9909853456886222</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01299373610536554</v>
+        <v>0.009014654311355688</v>
       </c>
       <c r="D35" t="n">
-        <v>2.219841276496225e-14</v>
+        <v>2.220416843653055e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9870062638946123</v>
+        <v>0.9909853456886222</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1362,20 +1362,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_34.fasta</t>
+          <t>label_UMGS824_55.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9957340408445485</v>
+        <v>0.9915737035149766</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004265959155429272</v>
+        <v>0.008426296485001207</v>
       </c>
       <c r="D36" t="n">
-        <v>2.219816194075704e-14</v>
+        <v>2.220069637936093e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9957340408445485</v>
+        <v>0.9915737035149766</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1386,20 +1386,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_44.fasta</t>
+          <t>label_UMGS824_6.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.987867726711277</v>
+        <v>0.9809956890126317</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01213227328870088</v>
+        <v>0.01900431098734601</v>
       </c>
       <c r="D37" t="n">
-        <v>2.219833512993341e-14</v>
+        <v>2.234788618490764e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.987867726711277</v>
+        <v>0.9809956890126317</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1410,20 +1410,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_46.fasta</t>
+          <t>label_UMGS824_64.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9343130201405567</v>
+        <v>0.9410431126269736</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06568697985941899</v>
+        <v>0.05895688737299835</v>
       </c>
       <c r="D38" t="n">
-        <v>2.42978805963513e-14</v>
+        <v>2.807896444512957e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9343130201405567</v>
+        <v>0.9410431126269736</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1434,20 +1434,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_57.fasta</t>
+          <t>label_UMGS824_65.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9618243077610107</v>
+        <v>0.8735293131196714</v>
       </c>
       <c r="C39" t="n">
-        <v>0.03817569223896583</v>
+        <v>0.1264706868802097</v>
       </c>
       <c r="D39" t="n">
-        <v>2.345915420941341e-14</v>
+        <v>1.18925327750595e-13</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9618243077610107</v>
+        <v>0.8735293131196714</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1458,20 +1458,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_61.fasta</t>
+          <t>label_UMGS824_68.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.7285191260470267</v>
+        <v>0.9644183405061163</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2714808739529189</v>
+        <v>0.03558165949384402</v>
       </c>
       <c r="D40" t="n">
-        <v>5.438609566064744e-14</v>
+        <v>3.96308142286681e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7285191260470267</v>
+        <v>0.9644183405061163</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1482,44 +1482,44 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_63.fasta</t>
+          <t>label_UMGS824_71.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3159821528792215</v>
+        <v>0.8222169415315997</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6840178471207047</v>
+        <v>0.1777830584682887</v>
       </c>
       <c r="D41" t="n">
-        <v>7.382294102700043e-14</v>
+        <v>1.1149535256455e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6840178471207047</v>
+        <v>0.8222169415315997</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900546695</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_70.fasta</t>
+          <t>label_UMGS824_73.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5630827131946181</v>
+        <v>0.9322300642352266</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4369172868048988</v>
+        <v>0.06776993576471185</v>
       </c>
       <c r="D42" t="n">
-        <v>4.830209597437911e-13</v>
+        <v>6.155759955867289e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5630827131946181</v>
+        <v>0.9322300642352266</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1530,20 +1530,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_11.fasta</t>
+          <t>label_UMGS824_8.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9872923727158148</v>
+        <v>0.9967678545924593</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01270762728416285</v>
+        <v>0.003232145407518467</v>
       </c>
       <c r="D43" t="n">
-        <v>2.233810386178175e-14</v>
+        <v>2.222029019512001e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9872923727158148</v>
+        <v>0.9967678545924593</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1554,20 +1554,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_13.fasta</t>
+          <t>label_UMGS824_19.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.984194361237381</v>
+        <v>0.9608737474378868</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01580563876259678</v>
+        <v>0.03912625256172796</v>
       </c>
       <c r="D44" t="n">
-        <v>2.219841010714205e-14</v>
+        <v>3.852860821613567e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0.984194361237381</v>
+        <v>0.9608737474378868</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1578,20 +1578,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_16.fasta</t>
+          <t>label_UMGS824_2.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9787222199401647</v>
+        <v>0.9694480969036188</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02127778005981272</v>
+        <v>0.03055190309592433</v>
       </c>
       <c r="D45" t="n">
-        <v>2.259020888124492e-14</v>
+        <v>4.569161026268955e-13</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9787222199401647</v>
+        <v>0.9694480969036188</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1602,20 +1602,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_17.fasta</t>
+          <t>label_UMGS824_26.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.8458290021672776</v>
+        <v>0.9536356388008652</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1541709978326941</v>
+        <v>0.04636436119892668</v>
       </c>
       <c r="D46" t="n">
-        <v>2.816111700568719e-14</v>
+        <v>2.080514104277191e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8458290021672776</v>
+        <v>0.9536356388008652</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1626,44 +1626,44 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_22.fasta</t>
+          <t>label_UMGS824_27.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9948613726941462</v>
+        <v>0.4375609161836766</v>
       </c>
       <c r="C47" t="n">
-        <v>0.005138627305831626</v>
+        <v>0.562439083816284</v>
       </c>
       <c r="D47" t="n">
-        <v>2.219874904884924e-14</v>
+        <v>3.945838397407817e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9948613726941462</v>
+        <v>0.562439083816284</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900546695</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_23.fasta</t>
+          <t>label_UMGS824_31.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9857387551526477</v>
+        <v>0.8843835765372957</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01426124484732994</v>
+        <v>0.1156164234584714</v>
       </c>
       <c r="D48" t="n">
-        <v>2.219826205590475e-14</v>
+        <v>4.232790688180581e-12</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9857387551526477</v>
+        <v>0.8843835765372957</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1674,20 +1674,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_52.fasta</t>
+          <t>label_UMGS824_32.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9909853456886222</v>
+        <v>0.9754035625707348</v>
       </c>
       <c r="C49" t="n">
-        <v>0.009014654311355688</v>
+        <v>0.02459643742887154</v>
       </c>
       <c r="D49" t="n">
-        <v>2.220416843653055e-14</v>
+        <v>3.936949082763334e-13</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9909853456886222</v>
+        <v>0.9754035625707348</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1698,20 +1698,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_55.fasta</t>
+          <t>label_UMGS824_33.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9915737035149766</v>
+        <v>0.9675595028873663</v>
       </c>
       <c r="C50" t="n">
-        <v>0.008426296485001207</v>
+        <v>0.03244049711243924</v>
       </c>
       <c r="D50" t="n">
-        <v>2.220069637936093e-14</v>
+        <v>1.94530533489511e-13</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9915737035149766</v>
+        <v>0.9675595028873663</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1722,20 +1722,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_6.fasta</t>
+          <t>label_UMGS824_35.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9809956890126317</v>
+        <v>0.9748904770952875</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01900431098734601</v>
+        <v>0.02510952290444174</v>
       </c>
       <c r="D51" t="n">
-        <v>2.234788618490764e-14</v>
+        <v>2.706943850111193e-13</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9809956890126317</v>
+        <v>0.9748904770952875</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1746,20 +1746,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_64.fasta</t>
+          <t>label_UMGS824_4.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9410431126269736</v>
+        <v>0.9799832400241888</v>
       </c>
       <c r="C52" t="n">
-        <v>0.05895688737299835</v>
+        <v>0.02001675997543627</v>
       </c>
       <c r="D52" t="n">
-        <v>2.807896444512957e-14</v>
+        <v>3.749022144624776e-13</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9410431126269736</v>
+        <v>0.9799832400241888</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1770,20 +1770,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_65.fasta</t>
+          <t>label_UMGS824_40.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.8735293131196714</v>
+        <v>0.8629587489769244</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1264706868802097</v>
+        <v>0.1370412510229675</v>
       </c>
       <c r="D53" t="n">
-        <v>1.18925327750595e-13</v>
+        <v>1.081493987940044e-13</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8735293131196714</v>
+        <v>0.8629587489769244</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1794,20 +1794,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_68.fasta</t>
+          <t>label_UMGS824_43.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9644183405061163</v>
+        <v>0.9397663203977615</v>
       </c>
       <c r="C54" t="n">
-        <v>0.03558165949384402</v>
+        <v>0.06023367959839909</v>
       </c>
       <c r="D54" t="n">
-        <v>3.96308142286681e-14</v>
+        <v>3.839432198326976e-12</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9644183405061163</v>
+        <v>0.9397663203977615</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1818,20 +1818,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_71.fasta</t>
+          <t>label_UMGS824_47.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.8222169415315997</v>
+        <v>0.7806095376593226</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1777830584682887</v>
+        <v>0.2193904623405793</v>
       </c>
       <c r="D55" t="n">
-        <v>1.1149535256455e-13</v>
+        <v>9.811814900238482e-14</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8222169415315997</v>
+        <v>0.7806095376593226</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1842,20 +1842,20 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_73.fasta</t>
+          <t>label_UMGS824_51.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9322300642352266</v>
+        <v>0.9006342874498032</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06776993576471185</v>
+        <v>0.09936571254989243</v>
       </c>
       <c r="D56" t="n">
-        <v>6.155759955867289e-14</v>
+        <v>3.043914461689595e-13</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9322300642352266</v>
+        <v>0.9006342874498032</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1866,20 +1866,20 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_8.fasta</t>
+          <t>label_UMGS824_53.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9967678545924593</v>
+        <v>0.9101302465827172</v>
       </c>
       <c r="C57" t="n">
-        <v>0.003232145407518467</v>
+        <v>0.08986975341712533</v>
       </c>
       <c r="D57" t="n">
-        <v>2.222029019512001e-14</v>
+        <v>1.573705052644424e-13</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9967678545924593</v>
+        <v>0.9101302465827172</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1890,20 +1890,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_19.fasta</t>
+          <t>label_UMGS824_59.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9608737474378868</v>
+        <v>0.9550779013297194</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03912625256172796</v>
+        <v>0.0449220986699715</v>
       </c>
       <c r="D58" t="n">
-        <v>3.852860821613567e-13</v>
+        <v>3.091305298753596e-13</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9608737474378868</v>
+        <v>0.9550779013297194</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1914,20 +1914,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_2.fasta</t>
+          <t>label_UMGS824_7.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9694480969036188</v>
+        <v>0.9950453990224346</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03055190309592433</v>
+        <v>0.004954600977308048</v>
       </c>
       <c r="D59" t="n">
-        <v>4.569161026268955e-13</v>
+        <v>2.574226143699901e-13</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9694480969036188</v>
+        <v>0.9950453990224346</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1938,68 +1938,68 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_26.fasta</t>
+          <t>label_UMGS824_72.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9536356388008652</v>
+        <v>0.2823894357077582</v>
       </c>
       <c r="C60" t="n">
-        <v>0.04636436119892668</v>
+        <v>0.7176105642919296</v>
       </c>
       <c r="D60" t="n">
-        <v>2.080514104277191e-13</v>
+        <v>3.122105448310612e-13</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9536356388008652</v>
+        <v>0.7176105642919296</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900546695</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_27.fasta</t>
+          <t>label_UMGS824_9.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.4375609161836766</v>
+        <v>0.9803031258846527</v>
       </c>
       <c r="C61" t="n">
-        <v>0.562439083816284</v>
+        <v>0.01969687411503192</v>
       </c>
       <c r="D61" t="n">
-        <v>3.945838397407817e-14</v>
+        <v>3.154442636077594e-13</v>
       </c>
       <c r="E61" t="n">
-        <v>0.562439083816284</v>
+        <v>0.9803031258846527</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900546695</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_31.fasta</t>
+          <t>label_UMGS824_12.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.8843835765372957</v>
+        <v>0.9943260769382801</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1156164234584714</v>
+        <v>0.005673923061694639</v>
       </c>
       <c r="D62" t="n">
-        <v>4.232790688180581e-12</v>
+        <v>2.529530173474535e-14</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8843835765372957</v>
+        <v>0.9943260769382801</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2010,20 +2010,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_32.fasta</t>
+          <t>label_UMGS824_14.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9754035625707348</v>
+        <v>0.9807036674947244</v>
       </c>
       <c r="C63" t="n">
-        <v>0.02459643742887154</v>
+        <v>0.0192963325052424</v>
       </c>
       <c r="D63" t="n">
-        <v>3.936949082763334e-13</v>
+        <v>3.32175972226889e-14</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9754035625707348</v>
+        <v>0.9807036674947244</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2034,20 +2034,20 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_33.fasta</t>
+          <t>label_UMGS824_18.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9675595028873663</v>
+        <v>0.9576438798200331</v>
       </c>
       <c r="C64" t="n">
-        <v>0.03244049711243924</v>
+        <v>0.04235612017992364</v>
       </c>
       <c r="D64" t="n">
-        <v>1.94530533489511e-13</v>
+        <v>4.331683479716101e-14</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9675595028873663</v>
+        <v>0.9576438798200331</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2058,20 +2058,20 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_35.fasta</t>
+          <t>label_UMGS824_21.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9748904770952875</v>
+        <v>0.9766852723092202</v>
       </c>
       <c r="C65" t="n">
-        <v>0.02510952290444174</v>
+        <v>0.02331472769073279</v>
       </c>
       <c r="D65" t="n">
-        <v>2.706943850111193e-13</v>
+        <v>4.707702496331133e-14</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9748904770952875</v>
+        <v>0.9766852723092202</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2082,20 +2082,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_4.fasta</t>
+          <t>label_UMGS824_24.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9799832400241888</v>
+        <v>0.9996634411131722</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02001675997543627</v>
+        <v>0.0003365588868055747</v>
       </c>
       <c r="D66" t="n">
-        <v>3.749022144624776e-13</v>
+        <v>2.221755514739924e-14</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9799832400241888</v>
+        <v>0.9996634411131722</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2106,20 +2106,20 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_40.fasta</t>
+          <t>label_UMGS824_25.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.8629587489769244</v>
+        <v>0.9978625947877129</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1370412510229675</v>
+        <v>0.002137405212257434</v>
       </c>
       <c r="D67" t="n">
-        <v>1.081493987940044e-13</v>
+        <v>2.971796323741597e-14</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8629587489769244</v>
+        <v>0.9978625947877129</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2130,20 +2130,20 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_43.fasta</t>
+          <t>label_UMGS824_28.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9397663203977615</v>
+        <v>0.954927774376062</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06023367959839909</v>
+        <v>0.04507222562389916</v>
       </c>
       <c r="D68" t="n">
-        <v>3.839432198326976e-12</v>
+        <v>3.891422911492289e-14</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9397663203977615</v>
+        <v>0.954927774376062</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2154,20 +2154,20 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_47.fasta</t>
+          <t>label_UMGS824_29.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.7806095376593226</v>
+        <v>0.9886146839092672</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2193904623405793</v>
+        <v>0.01138531609070117</v>
       </c>
       <c r="D69" t="n">
-        <v>9.811814900238482e-14</v>
+        <v>3.161631577576643e-14</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7806095376593226</v>
+        <v>0.9886146839092672</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2178,20 +2178,20 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_51.fasta</t>
+          <t>label_UMGS824_36.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9006342874498032</v>
+        <v>0.9379734796997489</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09936571254989243</v>
+        <v>0.06202652029994022</v>
       </c>
       <c r="D70" t="n">
-        <v>3.043914461689595e-13</v>
+        <v>3.109583594582123e-13</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9006342874498032</v>
+        <v>0.9379734796997489</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2202,20 +2202,20 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_53.fasta</t>
+          <t>label_UMGS824_37.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9101302465827172</v>
+        <v>0.9947939894994731</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08986975341712533</v>
+        <v>0.005206010500498956</v>
       </c>
       <c r="D71" t="n">
-        <v>1.573705052644424e-13</v>
+        <v>2.799113232861658e-14</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9101302465827172</v>
+        <v>0.9947939894994731</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2226,20 +2226,20 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_59.fasta</t>
+          <t>label_UMGS824_39.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9550779013297194</v>
+        <v>0.9979031657176312</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0449220986699715</v>
+        <v>0.002096834282345287</v>
       </c>
       <c r="D72" t="n">
-        <v>3.091305298753596e-13</v>
+        <v>2.350657980517052e-14</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9550779013297194</v>
+        <v>0.9979031657176312</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2250,20 +2250,20 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_7.fasta</t>
+          <t>label_UMGS824_42.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9950453990224346</v>
+        <v>0.5908408316544229</v>
       </c>
       <c r="C73" t="n">
-        <v>0.004954600977308048</v>
+        <v>0.4091591683446305</v>
       </c>
       <c r="D73" t="n">
-        <v>2.574226143699901e-13</v>
+        <v>9.465589271528215e-13</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9950453990224346</v>
+        <v>0.5908408316544229</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2274,44 +2274,44 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_72.fasta</t>
+          <t>label_UMGS824_45.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2823894357077582</v>
+        <v>0.9775701253530032</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7176105642919296</v>
+        <v>0.02242987464696084</v>
       </c>
       <c r="D74" t="n">
-        <v>3.122105448310612e-13</v>
+        <v>3.592657266806925e-14</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7176105642919296</v>
+        <v>0.9775701253530032</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900546695</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_9.fasta</t>
+          <t>label_UMGS824_5.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9803031258846527</v>
+        <v>0.992732535954744</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01969687411503192</v>
+        <v>0.007267464045213858</v>
       </c>
       <c r="D75" t="n">
-        <v>3.154442636077594e-13</v>
+        <v>4.220226014633514e-14</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9803031258846527</v>
+        <v>0.992732535954744</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2322,20 +2322,20 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_12.fasta</t>
+          <t>label_UMGS824_54.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9943260769382801</v>
+        <v>0.9478557085049415</v>
       </c>
       <c r="C76" t="n">
-        <v>0.005673923061694639</v>
+        <v>0.05214429149499234</v>
       </c>
       <c r="D76" t="n">
-        <v>2.529530173474535e-14</v>
+        <v>6.610720693752705e-14</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9943260769382801</v>
+        <v>0.9478557085049415</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2346,20 +2346,20 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_14.fasta</t>
+          <t>label_UMGS824_60.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9807036674947244</v>
+        <v>0.964655025876468</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0192963325052424</v>
+        <v>0.03534497412347838</v>
       </c>
       <c r="D77" t="n">
-        <v>3.32175972226889e-14</v>
+        <v>5.365602964456109e-14</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9807036674947244</v>
+        <v>0.964655025876468</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2370,358 +2370,22 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS824_18.fasta</t>
+          <t>label_UMGS824_66.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9576438798200331</v>
+        <v>0.5735832837996423</v>
       </c>
       <c r="C78" t="n">
-        <v>0.04235612017992364</v>
+        <v>0.4264167162003039</v>
       </c>
       <c r="D78" t="n">
-        <v>4.331683479716101e-14</v>
+        <v>5.386559856231112e-14</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9576438798200331</v>
+        <v>0.5735832837996423</v>
       </c>
       <c r="F78" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_21.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9766852723092202</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.02331472769073279</v>
-      </c>
-      <c r="D79" t="n">
-        <v>4.707702496331133e-14</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.9766852723092202</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_24.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9996634411131722</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.0003365588868055747</v>
-      </c>
-      <c r="D80" t="n">
-        <v>2.221755514739924e-14</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.9996634411131722</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_25.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9978625947877129</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.002137405212257434</v>
-      </c>
-      <c r="D81" t="n">
-        <v>2.971796323741597e-14</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.9978625947877129</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_28.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.954927774376062</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.04507222562389916</v>
-      </c>
-      <c r="D82" t="n">
-        <v>3.891422911492289e-14</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.954927774376062</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_29.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.9886146839092672</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.01138531609070117</v>
-      </c>
-      <c r="D83" t="n">
-        <v>3.161631577576643e-14</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.9886146839092672</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_36.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.9379734796997489</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.06202652029994022</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3.109583594582123e-13</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.9379734796997489</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_37.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.9947939894994731</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.005206010500498956</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2.799113232861658e-14</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.9947939894994731</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_39.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.9979031657176312</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.002096834282345287</v>
-      </c>
-      <c r="D86" t="n">
-        <v>2.350657980517052e-14</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.9979031657176312</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_42.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.5908408316544229</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.4091591683446305</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9.465589271528215e-13</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.5908408316544229</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_45.fasta</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.9775701253530032</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.02242987464696084</v>
-      </c>
-      <c r="D88" t="n">
-        <v>3.592657266806925e-14</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.9775701253530032</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_5.fasta</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.992732535954744</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.007267464045213858</v>
-      </c>
-      <c r="D89" t="n">
-        <v>4.220226014633514e-14</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.992732535954744</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_54.fasta</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.9478557085049415</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.05214429149499234</v>
-      </c>
-      <c r="D90" t="n">
-        <v>6.610720693752705e-14</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.9478557085049415</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_60.fasta</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.964655025876468</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.03534497412347838</v>
-      </c>
-      <c r="D91" t="n">
-        <v>5.365602964456109e-14</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.964655025876468</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS824_66.fasta</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.5735832837996423</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.4264167162003039</v>
-      </c>
-      <c r="D92" t="n">
-        <v>5.386559856231112e-14</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.5735832837996423</v>
-      </c>
-      <c r="F92" t="inlineStr">
         <is>
           <t>s__UMGS911 sp900545935</t>
         </is>
@@ -2738,7 +2402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2997,20 +2661,20 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_2.fasta</t>
+          <t>label_UMGS911_1.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04698016185439474</v>
+        <v>0.03483038581218804</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9530198381443196</v>
+        <v>0.965169614187504</v>
       </c>
       <c r="D11" t="n">
-        <v>1.285707026262252e-12</v>
+        <v>3.079338847697751e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9530198381443196</v>
+        <v>0.965169614187504</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -3021,20 +2685,20 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_21.fasta</t>
+          <t>label_UMGS911_10.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04315803854473453</v>
+        <v>0.1965571587948343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9568419614549284</v>
+        <v>0.803442841205059</v>
       </c>
       <c r="D12" t="n">
-        <v>3.371312497937788e-13</v>
+        <v>1.065898684915455e-13</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9568419614549284</v>
+        <v>0.803442841205059</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -3045,20 +2709,20 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_27.fasta</t>
+          <t>label_UMGS911_13.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0323552731119522</v>
+        <v>0.003967794072688073</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9676447268874133</v>
+        <v>0.9960322059270952</v>
       </c>
       <c r="D13" t="n">
-        <v>6.344132757752568e-13</v>
+        <v>2.167489878859357e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9676447268874133</v>
+        <v>0.9960322059270952</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -3069,20 +2733,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_32.fasta</t>
+          <t>label_UMGS911_16.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1016169962226368</v>
+        <v>0.01505808057008522</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8983830037771606</v>
+        <v>0.9849419194297556</v>
       </c>
       <c r="D14" t="n">
-        <v>2.024941809663952e-13</v>
+        <v>1.590839900838043e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8983830037771606</v>
+        <v>0.9849419194297556</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -3093,20 +2757,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_41.fasta</t>
+          <t>label_UMGS911_24.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02902226443399562</v>
+        <v>0.01707933410038268</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9709777355655178</v>
+        <v>0.9829206658994902</v>
       </c>
       <c r="D15" t="n">
-        <v>4.86577701430222e-13</v>
+        <v>1.271287604306625e-13</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9709777355655178</v>
+        <v>0.9829206658994902</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3117,20 +2781,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_5.fasta</t>
+          <t>label_UMGS911_25.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02819216126720312</v>
+        <v>0.04723681818649181</v>
       </c>
       <c r="C16" t="n">
-        <v>0.971807838731802</v>
+        <v>0.9527631818133145</v>
       </c>
       <c r="D16" t="n">
-        <v>9.949265756048198e-13</v>
+        <v>1.935217807633826e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0.971807838731802</v>
+        <v>0.9527631818133145</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3141,20 +2805,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_50.fasta</t>
+          <t>label_UMGS911_3.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3501267292848228</v>
+        <v>0.01989032253257516</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6498732707149251</v>
+        <v>0.9801096774671483</v>
       </c>
       <c r="D17" t="n">
-        <v>2.521340473577348e-13</v>
+        <v>2.766698215175117e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6498732707149251</v>
+        <v>0.9801096774671483</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3165,20 +2829,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_52.fasta</t>
+          <t>label_UMGS911_39.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6908168286154884</v>
+        <v>0.5112798895262346</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3091831713840524</v>
+        <v>0.4887201104737284</v>
       </c>
       <c r="D18" t="n">
-        <v>4.590518002643965e-13</v>
+        <v>3.698077720007158e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6908168286154884</v>
+        <v>0.5112798895262346</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3189,20 +2853,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_1.fasta</t>
+          <t>label_UMGS911_4.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03483038581218804</v>
+        <v>0.0241806657086776</v>
       </c>
       <c r="C19" t="n">
-        <v>0.965169614187504</v>
+        <v>0.9758193342910166</v>
       </c>
       <c r="D19" t="n">
-        <v>3.079338847697751e-13</v>
+        <v>3.057208641569123e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0.965169614187504</v>
+        <v>0.9758193342910166</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -3213,20 +2877,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_10.fasta</t>
+          <t>label_UMGS911_42.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1965571587948343</v>
+        <v>0.4063335066092154</v>
       </c>
       <c r="C20" t="n">
-        <v>0.803442841205059</v>
+        <v>0.5936664933907386</v>
       </c>
       <c r="D20" t="n">
-        <v>1.065898684915455e-13</v>
+        <v>4.596206289534372e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.803442841205059</v>
+        <v>0.5936664933907386</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -3237,44 +2901,44 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_13.fasta</t>
+          <t>label_UMGS911_47.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.003967794072688073</v>
+        <v>0.7635287515557641</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9960322059270952</v>
+        <v>0.2364712484441854</v>
       </c>
       <c r="D21" t="n">
-        <v>2.167489878859357e-13</v>
+        <v>5.048008425867902e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9960322059270952</v>
+        <v>0.7635287515557641</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900546695</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_16.fasta</t>
+          <t>label_UMGS911_49.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01505808057008522</v>
+        <v>0.3583234272740617</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9849419194297556</v>
+        <v>0.6416765727258543</v>
       </c>
       <c r="D22" t="n">
-        <v>1.590839900838043e-13</v>
+        <v>8.402450155148349e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9849419194297556</v>
+        <v>0.6416765727258543</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -3285,20 +2949,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_24.fasta</t>
+          <t>label_UMGS911_51.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01707933410038268</v>
+        <v>0.08847831901809398</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9829206658994902</v>
+        <v>0.9115216809817783</v>
       </c>
       <c r="D23" t="n">
-        <v>1.271287604306625e-13</v>
+        <v>1.277408818462695e-13</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9829206658994902</v>
+        <v>0.9115216809817783</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -3309,20 +2973,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_25.fasta</t>
+          <t>label_UMGS911_7.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.04723681818649181</v>
+        <v>0.02231123342042699</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9527631818133145</v>
+        <v>0.9776887665792179</v>
       </c>
       <c r="D24" t="n">
-        <v>1.935217807633826e-13</v>
+        <v>3.551957669432716e-13</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9527631818133145</v>
+        <v>0.9776887665792179</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -3333,20 +2997,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_3.fasta</t>
+          <t>label_UMGS911_12.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01989032253257516</v>
+        <v>0.04388202209919894</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9801096774671483</v>
+        <v>0.9561179779007518</v>
       </c>
       <c r="D25" t="n">
-        <v>2.766698215175117e-13</v>
+        <v>4.931585321040865e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9801096774671483</v>
+        <v>0.9561179779007518</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -3357,44 +3021,44 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_39.fasta</t>
+          <t>label_UMGS911_18.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5112798895262346</v>
+        <v>0.01119715586953867</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4887201104737284</v>
+        <v>0.9888028441303889</v>
       </c>
       <c r="D26" t="n">
-        <v>3.698077720007158e-14</v>
+        <v>7.256749264653131e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5112798895262346</v>
+        <v>0.9888028441303889</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900546695</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_4.fasta</t>
+          <t>label_UMGS911_19.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0241806657086776</v>
+        <v>0.03726651547159995</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9758193342910166</v>
+        <v>0.9627334845282952</v>
       </c>
       <c r="D27" t="n">
-        <v>3.057208641569123e-13</v>
+        <v>1.049034975055748e-13</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9758193342910166</v>
+        <v>0.9627334845282952</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3405,20 +3069,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_42.fasta</t>
+          <t>label_UMGS911_20.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4063335066092154</v>
+        <v>0.02534683948787474</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5936664933907386</v>
+        <v>0.9746531605120533</v>
       </c>
       <c r="D28" t="n">
-        <v>4.596206289534372e-14</v>
+        <v>7.19343509688967e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5936664933907386</v>
+        <v>0.9746531605120533</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3429,44 +3093,44 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_47.fasta</t>
+          <t>label_UMGS911_22.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.7635287515557641</v>
+        <v>0.02568179892152173</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2364712484441854</v>
+        <v>0.974318201078374</v>
       </c>
       <c r="D29" t="n">
-        <v>5.048008425867902e-14</v>
+        <v>1.044285160916153e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7635287515557641</v>
+        <v>0.974318201078374</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900546695</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_49.fasta</t>
+          <t>label_UMGS911_23.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3583234272740617</v>
+        <v>0.01152957198375955</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6416765727258543</v>
+        <v>0.9884704280161595</v>
       </c>
       <c r="D30" t="n">
-        <v>8.402450155148349e-14</v>
+        <v>8.099735739686745e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6416765727258543</v>
+        <v>0.9884704280161595</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -3477,44 +3141,44 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_51.fasta</t>
+          <t>label_UMGS911_29.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.08847831901809398</v>
+        <v>0.5711119247487224</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9115216809817783</v>
+        <v>0.4288880752512494</v>
       </c>
       <c r="D31" t="n">
-        <v>1.277408818462695e-13</v>
+        <v>2.821259722627571e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9115216809817783</v>
+        <v>0.5711119247487224</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900546695</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_7.fasta</t>
+          <t>label_UMGS911_35.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02231123342042699</v>
+        <v>0.36262842275504</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9776887665792179</v>
+        <v>0.6373715772448748</v>
       </c>
       <c r="D32" t="n">
-        <v>3.551957669432716e-13</v>
+        <v>8.515471676631972e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9776887665792179</v>
+        <v>0.6373715772448748</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -3525,44 +3189,44 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_12.fasta</t>
+          <t>label_UMGS911_48.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04388202209919894</v>
+        <v>0.7067369943064548</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9561179779007518</v>
+        <v>0.2932630056935185</v>
       </c>
       <c r="D33" t="n">
-        <v>4.931585321040865e-14</v>
+        <v>2.681331142697485e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9561179779007518</v>
+        <v>0.7067369943064548</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900546695</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_18.fasta</t>
+          <t>label_UMGS911_6.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01119715586953867</v>
+        <v>0.2614359993192303</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9888028441303889</v>
+        <v>0.7385640006807475</v>
       </c>
       <c r="D34" t="n">
-        <v>7.256749264653131e-14</v>
+        <v>2.220225631788291e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9888028441303889</v>
+        <v>0.7385640006807475</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -3573,20 +3237,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_19.fasta</t>
+          <t>label_UMGS911_9.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.03726651547159995</v>
+        <v>0.03964304741175107</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9627334845282952</v>
+        <v>0.9603569525882123</v>
       </c>
       <c r="D35" t="n">
-        <v>1.049034975055748e-13</v>
+        <v>3.669845435513524e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9627334845282952</v>
+        <v>0.9603569525882123</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3597,20 +3261,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_20.fasta</t>
+          <t>label_UMGS911_0.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02534683948787474</v>
+        <v>0.00997383473009493</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9746531605120533</v>
+        <v>0.990026165269883</v>
       </c>
       <c r="D36" t="n">
-        <v>7.19343509688967e-14</v>
+        <v>2.219822950745009e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9746531605120533</v>
+        <v>0.990026165269883</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3621,20 +3285,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_22.fasta</t>
+          <t>label_UMGS911_14.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02568179892152173</v>
+        <v>0.04718599910190589</v>
       </c>
       <c r="C37" t="n">
-        <v>0.974318201078374</v>
+        <v>0.9528140008980708</v>
       </c>
       <c r="D37" t="n">
-        <v>1.044285160916153e-13</v>
+        <v>2.332426704789506e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.974318201078374</v>
+        <v>0.9528140008980708</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -3645,20 +3309,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_23.fasta</t>
+          <t>label_UMGS911_17.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01152957198375955</v>
+        <v>0.03592931934830029</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9884704280161595</v>
+        <v>0.9640706806516776</v>
       </c>
       <c r="D38" t="n">
-        <v>8.099735739686745e-14</v>
+        <v>2.219879827404217e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9884704280161595</v>
+        <v>0.9640706806516776</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3669,20 +3333,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_29.fasta</t>
+          <t>label_UMGS911_28.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5711119247487224</v>
+        <v>0.6053490854202886</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4288880752512494</v>
+        <v>0.3946509145796437</v>
       </c>
       <c r="D39" t="n">
-        <v>2.821259722627571e-14</v>
+        <v>6.766838962975693e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5711119247487224</v>
+        <v>0.6053490854202886</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3693,20 +3357,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_35.fasta</t>
+          <t>label_UMGS911_30.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.36262842275504</v>
+        <v>0.09133543598799133</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6373715772448748</v>
+        <v>0.9086645640119865</v>
       </c>
       <c r="D40" t="n">
-        <v>8.515471676631972e-14</v>
+        <v>2.219993248541247e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6373715772448748</v>
+        <v>0.9086645640119865</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -3717,20 +3381,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_48.fasta</t>
+          <t>label_UMGS911_33.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.7067369943064548</v>
+        <v>0.7671439846098608</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2932630056935185</v>
+        <v>0.2328560153896035</v>
       </c>
       <c r="D41" t="n">
-        <v>2.681331142697485e-14</v>
+        <v>5.357285699971384e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7067369943064548</v>
+        <v>0.7671439846098608</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -3741,20 +3405,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_6.fasta</t>
+          <t>label_UMGS911_37.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2614359993192303</v>
+        <v>0.07862627216720486</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7385640006807475</v>
+        <v>0.9213737278327729</v>
       </c>
       <c r="D42" t="n">
-        <v>2.220225631788291e-14</v>
+        <v>2.21994084103156e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7385640006807475</v>
+        <v>0.9213737278327729</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -3765,20 +3429,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_9.fasta</t>
+          <t>label_UMGS911_43.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.03964304741175107</v>
+        <v>0.2484508327530794</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9603569525882123</v>
+        <v>0.7515491672468897</v>
       </c>
       <c r="D43" t="n">
-        <v>3.669845435513524e-14</v>
+        <v>3.10087956929113e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9603569525882123</v>
+        <v>0.7515491672468897</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -3789,20 +3453,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_0.fasta</t>
+          <t>label_UMGS911_44.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.00997383473009493</v>
+        <v>0.1236252577333428</v>
       </c>
       <c r="C44" t="n">
-        <v>0.990026165269883</v>
+        <v>0.8763747422666348</v>
       </c>
       <c r="D44" t="n">
-        <v>2.219822950745009e-14</v>
+        <v>2.219981505849269e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.990026165269883</v>
+        <v>0.8763747422666348</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3813,20 +3477,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_14.fasta</t>
+          <t>label_UMGS911_46.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.04718599910190589</v>
+        <v>0.3867484656979071</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9528140008980708</v>
+        <v>0.613251534302058</v>
       </c>
       <c r="D45" t="n">
-        <v>2.332426704789506e-14</v>
+        <v>3.484544917322466e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9528140008980708</v>
+        <v>0.613251534302058</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3837,20 +3501,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_17.fasta</t>
+          <t>label_UMGS911_8.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.03592931934830029</v>
+        <v>0.00565583572147238</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9640706806516776</v>
+        <v>0.9943441642785054</v>
       </c>
       <c r="D46" t="n">
-        <v>2.219879827404217e-14</v>
+        <v>2.219818476679851e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9640706806516776</v>
+        <v>0.9943441642785054</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3861,44 +3525,44 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_28.fasta</t>
+          <t>label_UMGS911_11.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.6053490854202886</v>
+        <v>0.04437713731271086</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3946509145796437</v>
+        <v>0.9556228626872492</v>
       </c>
       <c r="D47" t="n">
-        <v>6.766838962975693e-14</v>
+        <v>3.99568690535654e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6053490854202886</v>
+        <v>0.9556228626872492</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900546695</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_30.fasta</t>
+          <t>label_UMGS911_15.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.09133543598799133</v>
+        <v>0.2026144524816254</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9086645640119865</v>
+        <v>0.7973855475183015</v>
       </c>
       <c r="D48" t="n">
-        <v>2.219993248541247e-14</v>
+        <v>7.318921174582772e-14</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9086645640119865</v>
+        <v>0.7973855475183015</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3909,68 +3573,68 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_33.fasta</t>
+          <t>label_UMGS911_26.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.7671439846098608</v>
+        <v>0.1107687257152075</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2328560153896035</v>
+        <v>0.8892312742847479</v>
       </c>
       <c r="D49" t="n">
-        <v>5.357285699971384e-13</v>
+        <v>4.468553821397171e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7671439846098608</v>
+        <v>0.8892312742847479</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900546695</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_37.fasta</t>
+          <t>label_UMGS911_31.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.07862627216720486</v>
+        <v>0.5051279025628864</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9213737278327729</v>
+        <v>0.4948720974370868</v>
       </c>
       <c r="D50" t="n">
-        <v>2.21994084103156e-14</v>
+        <v>2.676926014110878e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9213737278327729</v>
+        <v>0.5051279025628864</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900546695</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_43.fasta</t>
+          <t>label_UMGS911_34.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2484508327530794</v>
+        <v>0.1461385918337137</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7515491672468897</v>
+        <v>0.8538614081662478</v>
       </c>
       <c r="D51" t="n">
-        <v>3.10087956929113e-14</v>
+        <v>3.8502112832816e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7515491672468897</v>
+        <v>0.8538614081662478</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3981,44 +3645,44 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_44.fasta</t>
+          <t>label_UMGS911_36.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1236252577333428</v>
+        <v>0.5101697790000811</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8763747422666348</v>
+        <v>0.4898302209998945</v>
       </c>
       <c r="D52" t="n">
-        <v>2.219981505849269e-14</v>
+        <v>2.4398437513536e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8763747422666348</v>
+        <v>0.5101697790000811</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900546695</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_46.fasta</t>
+          <t>label_UMGS911_38.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3867484656979071</v>
+        <v>0.2106944019057959</v>
       </c>
       <c r="C53" t="n">
-        <v>0.613251534302058</v>
+        <v>0.7893055980941677</v>
       </c>
       <c r="D53" t="n">
-        <v>3.484544917322466e-14</v>
+        <v>3.640390916509728e-14</v>
       </c>
       <c r="E53" t="n">
-        <v>0.613251534302058</v>
+        <v>0.7893055980941677</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -4029,238 +3693,46 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_8.fasta</t>
+          <t>label_UMGS911_40.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.00565583572147238</v>
+        <v>0.6405119290967699</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9943441642785054</v>
+        <v>0.3594880709032021</v>
       </c>
       <c r="D54" t="n">
-        <v>2.219818476679851e-14</v>
+        <v>2.797065242452874e-14</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9943441642785054</v>
+        <v>0.6405119290967699</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900546695</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS911_11.fasta</t>
+          <t>label_UMGS911_45.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.04437713731271086</v>
+        <v>0.1804137271019841</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9556228626872492</v>
+        <v>0.8195862728979902</v>
       </c>
       <c r="D55" t="n">
-        <v>3.99568690535654e-14</v>
+        <v>2.554437396036236e-14</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9556228626872492</v>
+        <v>0.8195862728979902</v>
       </c>
       <c r="F55" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900546695</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS911_15.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.2026144524816254</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.7973855475183015</v>
-      </c>
-      <c r="D56" t="n">
-        <v>7.318921174582772e-14</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.7973855475183015</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900546695</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS911_26.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.1107687257152075</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.8892312742847479</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4.468553821397171e-14</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.8892312742847479</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900546695</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS911_31.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.5051279025628864</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.4948720974370868</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2.676926014110878e-14</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.5051279025628864</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS911_34.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.1461385918337137</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.8538614081662478</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3.8502112832816e-14</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.8538614081662478</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900546695</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS911_36.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.5101697790000811</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.4898302209998945</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2.4398437513536e-14</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.5101697790000811</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS911_38.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.2106944019057959</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.7893055980941677</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3.640390916509728e-14</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.7893055980941677</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900546695</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS911_40.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.6405119290967699</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.3594880709032021</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2.797065242452874e-14</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.6405119290967699</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS911_45.fasta</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.1804137271019841</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.8195862728979902</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2.554437396036236e-14</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.8195862728979902</v>
-      </c>
-      <c r="F63" t="inlineStr">
         <is>
           <t>s__UMGS911 sp900546695</t>
         </is>
@@ -4277,7 +3749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4776,20 +4248,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_0.fasta</t>
+          <t>label_UMGS2038_10.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0002045091393923506</v>
+        <v>0.0003150484074741667</v>
       </c>
       <c r="C21" t="n">
-        <v>3.795454717786242e-05</v>
+        <v>0.0002444724622765717</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9997575363134298</v>
+        <v>0.9994404791302491</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997575363134298</v>
+        <v>0.9994404791302491</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4800,20 +4272,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_1.fasta</t>
+          <t>label_UMGS2038_14.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0004969014428577474</v>
+        <v>8.597431483318895e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002138782605750454</v>
+        <v>0.0008304844080689737</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9992892202965672</v>
+        <v>0.9990835412770978</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9992892202965672</v>
+        <v>0.9990835412770978</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -4824,20 +4296,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_13.fasta</t>
+          <t>label_UMGS2038_15.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.439980197956208e-05</v>
+        <v>2.732047084326046e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0001826179966900549</v>
+        <v>0.0001603809358510111</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9997729822013304</v>
+        <v>0.9998122985933058</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997729822013304</v>
+        <v>0.9998122985933058</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -4848,20 +4320,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_16.fasta</t>
+          <t>label_UMGS2038_21.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.001148568054519073</v>
+        <v>0.0004603981771337106</v>
       </c>
       <c r="C24" t="n">
-        <v>1.070090311963939e-07</v>
+        <v>0.001036532817418201</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9988513249364498</v>
+        <v>0.9985030690054481</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9988513249364498</v>
+        <v>0.9985030690054481</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -4872,20 +4344,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_19.fasta</t>
+          <t>label_UMGS2038_24.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001333122216318852</v>
+        <v>0.0007286075475723475</v>
       </c>
       <c r="C25" t="n">
-        <v>8.67596710051989e-07</v>
+        <v>0.000696479961011489</v>
       </c>
       <c r="D25" t="n">
-        <v>0.998666010186971</v>
+        <v>0.9985749124914163</v>
       </c>
       <c r="E25" t="n">
-        <v>0.998666010186971</v>
+        <v>0.9985749124914163</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -4896,20 +4368,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_20.fasta</t>
+          <t>label_UMGS2038_27.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0002852492036062418</v>
+        <v>0.0001877574507508986</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000142463039890536</v>
+        <v>0.007042206921465072</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9995722877565033</v>
+        <v>0.9927700356277841</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9995722877565033</v>
+        <v>0.9927700356277841</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -4920,20 +4392,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_25.fasta</t>
+          <t>label_UMGS2038_28.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.001136992920088373</v>
+        <v>0.0004666698436243744</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0004968780013247941</v>
+        <v>0.001309173069326626</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9983661290785869</v>
+        <v>0.9982241570870489</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9983661290785869</v>
+        <v>0.9982241570870489</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -4944,20 +4416,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_29.fasta</t>
+          <t>label_UMGS2038_38.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0006649613476003344</v>
+        <v>0.0003542933883140724</v>
       </c>
       <c r="C28" t="n">
-        <v>4.975619085384682e-05</v>
+        <v>1.316111425320613e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9992852824615457</v>
+        <v>0.9996325454974326</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9992852824615457</v>
+        <v>0.9996325454974326</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -4968,20 +4440,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_33.fasta</t>
+          <t>label_UMGS2038_4.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0005926356798543837</v>
+        <v>0.0001336191982596381</v>
       </c>
       <c r="C29" t="n">
-        <v>1.532423242945804e-09</v>
+        <v>0.001022366340308802</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9994073627877224</v>
+        <v>0.9988440144614316</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9994073627877224</v>
+        <v>0.9988440144614316</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -4992,20 +4464,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_35.fasta</t>
+          <t>label_UMGS2038_42.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.000197235646782275</v>
+        <v>0.02056390743862047</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0003103712168090063</v>
+        <v>4.190713751012599e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9994923931364087</v>
+        <v>0.9794360925613376</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9994923931364087</v>
+        <v>0.9794360925613376</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -5016,20 +4488,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_37.fasta</t>
+          <t>label_UMGS2038_46.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0002637735673472818</v>
+        <v>0.004224272847048845</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002478511540002596</v>
+        <v>0.001134522766584899</v>
       </c>
       <c r="D31" t="n">
-        <v>0.99725771489265</v>
+        <v>0.9946412043863662</v>
       </c>
       <c r="E31" t="n">
-        <v>0.99725771489265</v>
+        <v>0.9946412043863662</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -5040,20 +4512,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_47.fasta</t>
+          <t>label_UMGS2038_57.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001134310274760546</v>
+        <v>0.001324554814217929</v>
       </c>
       <c r="C32" t="n">
-        <v>8.923602889593435e-06</v>
+        <v>2.345962461821822e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9988567661223499</v>
+        <v>0.998651985561164</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9988567661223499</v>
+        <v>0.998651985561164</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -5064,20 +4536,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_49.fasta</t>
+          <t>label_UMGS2038_58.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.002001346897036907</v>
+        <v>0.001079391194957561</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001449068496793466</v>
+        <v>0.001237699884167426</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9965495846061696</v>
+        <v>0.997682908920875</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9965495846061696</v>
+        <v>0.997682908920875</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -5088,20 +4560,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_5.fasta</t>
+          <t>label_UMGS2038_61.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.005481104246511374</v>
+        <v>0.003128466321801732</v>
       </c>
       <c r="C34" t="n">
-        <v>3.909466232777318e-09</v>
+        <v>3.237717871246927e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9945188918440223</v>
+        <v>0.9968391564994857</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9945188918440223</v>
+        <v>0.9968391564994857</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -5112,20 +4584,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_51.fasta</t>
+          <t>label_UMGS2038_67.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0002054447291379819</v>
+        <v>0.0008341817440279471</v>
       </c>
       <c r="C35" t="n">
-        <v>7.51476593410945e-05</v>
+        <v>0.003591492727182287</v>
       </c>
       <c r="D35" t="n">
-        <v>0.999719407611521</v>
+        <v>0.9955743255287898</v>
       </c>
       <c r="E35" t="n">
-        <v>0.999719407611521</v>
+        <v>0.9955743255287898</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -5136,20 +4608,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_54.fasta</t>
+          <t>label_UMGS2038_72.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.004001754810605368</v>
+        <v>0.008962380400859719</v>
       </c>
       <c r="C36" t="n">
-        <v>1.462589030770543e-13</v>
+        <v>0.0007428738087824994</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9959982451892484</v>
+        <v>0.9902947457903578</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9959982451892484</v>
+        <v>0.9902947457903578</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -5160,20 +4632,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_60.fasta</t>
+          <t>label_UMGS2038_73.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0007370413985579739</v>
+        <v>0.0002423274628945264</v>
       </c>
       <c r="C37" t="n">
-        <v>9.68423967314154e-05</v>
+        <v>1.742389746480306e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9991661162047106</v>
+        <v>0.9997402486396407</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9991661162047106</v>
+        <v>0.9997402486396407</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -5184,20 +4656,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_77.fasta</t>
+          <t>label_UMGS2038_79.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.598633670876616e-05</v>
+        <v>0.000298057334795959</v>
       </c>
       <c r="C38" t="n">
-        <v>1.087762543644355e-06</v>
+        <v>9.236362602716284e-07</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9999829259007474</v>
+        <v>0.9997010190289437</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9999829259007474</v>
+        <v>0.9997010190289437</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -5208,20 +4680,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_78.fasta</t>
+          <t>label_UMGS2038_89.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.168918178532484e-05</v>
+        <v>0.0002177472988093166</v>
       </c>
       <c r="C39" t="n">
-        <v>1.490889509850139e-06</v>
+        <v>9.066894811217822e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9999868199287048</v>
+        <v>0.9997731858063794</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9999868199287048</v>
+        <v>0.9997731858063794</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -5232,20 +4704,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_83.fasta</t>
+          <t>label_UMGS2038_9.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1661331550610269</v>
+        <v>0.0005728278622953543</v>
       </c>
       <c r="C40" t="n">
-        <v>0.199378269248243</v>
+        <v>1.202083365837246e-07</v>
       </c>
       <c r="D40" t="n">
-        <v>0.63448857569073</v>
+        <v>0.999427051929368</v>
       </c>
       <c r="E40" t="n">
-        <v>0.63448857569073</v>
+        <v>0.999427051929368</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -5256,20 +4728,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_87.fasta</t>
+          <t>label_UMGS2038_97.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0006078228859128542</v>
+        <v>0.000937318644163703</v>
       </c>
       <c r="C41" t="n">
-        <v>5.498299133241392e-07</v>
+        <v>3.308453809561534e-07</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9993916272841737</v>
+        <v>0.9990623505104552</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9993916272841737</v>
+        <v>0.9990623505104552</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -5280,20 +4752,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_88.fasta</t>
+          <t>label_UMGS2038_12.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9.714279118826949e-05</v>
+        <v>8.791274830661404e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0.001631996777639964</v>
+        <v>9.557624939867595e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9982708604311719</v>
+        <v>0.9998165110022946</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9982708604311719</v>
+        <v>0.9998165110022946</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -5304,20 +4776,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_90.fasta</t>
+          <t>label_UMGS2038_2.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.91844200352725e-05</v>
+        <v>0.0001350597888140705</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0001094272538831538</v>
+        <v>0.000858009235571751</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9998513883260817</v>
+        <v>0.9990069309756142</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9998513883260817</v>
+        <v>0.9990069309756142</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -5328,20 +4800,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_10.fasta</t>
+          <t>label_UMGS2038_26.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0003150484074741667</v>
+        <v>7.998012171367719e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0002444724622765717</v>
+        <v>6.527397369271353e-10</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9994404791302491</v>
+        <v>0.9999200192255466</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9994404791302491</v>
+        <v>0.9999200192255466</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -5352,20 +4824,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_14.fasta</t>
+          <t>label_UMGS2038_31.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8.597431483318895e-05</v>
+        <v>0.0005710164467355944</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0008304844080689737</v>
+        <v>6.409987597322233e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9990835412770978</v>
+        <v>0.9993648836772911</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9990835412770978</v>
+        <v>0.9993648836772911</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -5376,20 +4848,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_15.fasta</t>
+          <t>label_UMGS2038_34.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.732047084326046e-05</v>
+        <v>4.760729461713156e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0001603809358510111</v>
+        <v>0.0002309817687913257</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9998122985933058</v>
+        <v>0.9997214109365916</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9998122985933058</v>
+        <v>0.9997214109365916</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -5400,20 +4872,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_21.fasta</t>
+          <t>label_UMGS2038_39.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0004603981771337106</v>
+        <v>0.0001198886565858744</v>
       </c>
       <c r="C47" t="n">
-        <v>0.001036532817418201</v>
+        <v>0.0002373789298744621</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9985030690054481</v>
+        <v>0.9996427324135396</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9985030690054481</v>
+        <v>0.9996427324135396</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -5424,20 +4896,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_24.fasta</t>
+          <t>label_UMGS2038_44.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0007286075475723475</v>
+        <v>0.0005267243617004203</v>
       </c>
       <c r="C48" t="n">
-        <v>0.000696479961011489</v>
+        <v>6.443577925595544e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9985749124914163</v>
+        <v>0.9994668320603739</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9985749124914163</v>
+        <v>0.9994668320603739</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -5448,20 +4920,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_27.fasta</t>
+          <t>label_UMGS2038_48.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0001877574507508986</v>
+        <v>0.001860767073236155</v>
       </c>
       <c r="C49" t="n">
-        <v>0.007042206921465072</v>
+        <v>0.0008466468525303127</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9927700356277841</v>
+        <v>0.9972925860742335</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9927700356277841</v>
+        <v>0.9972925860742335</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -5472,20 +4944,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_28.fasta</t>
+          <t>label_UMGS2038_52.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0004666698436243744</v>
+        <v>0.002388688845183588</v>
       </c>
       <c r="C50" t="n">
-        <v>0.001309173069326626</v>
+        <v>7.836802836013015e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9982241570870489</v>
+        <v>0.9975329431264562</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9982241570870489</v>
+        <v>0.9975329431264562</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -5496,20 +4968,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_38.fasta</t>
+          <t>label_UMGS2038_64.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.0003542933883140724</v>
+        <v>0.0001185451287830012</v>
       </c>
       <c r="C51" t="n">
-        <v>1.316111425320613e-05</v>
+        <v>6.328110822479797e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9996325454974326</v>
+        <v>0.9998181737629922</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9996325454974326</v>
+        <v>0.9998181737629922</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -5520,20 +4992,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_4.fasta</t>
+          <t>label_UMGS2038_7.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0001336191982596381</v>
+        <v>5.269892200075899e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001022366340308802</v>
+        <v>0.0001685775238378888</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9988440144614316</v>
+        <v>0.9997787235541614</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9988440144614316</v>
+        <v>0.9997787235541614</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -5544,20 +5016,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_42.fasta</t>
+          <t>label_UMGS2038_70.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02056390743862047</v>
+        <v>0.00162465128621166</v>
       </c>
       <c r="C53" t="n">
-        <v>4.190713751012599e-14</v>
+        <v>4.469823560367481e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9794360925613376</v>
+        <v>0.998370878890228</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9794360925613376</v>
+        <v>0.998370878890228</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -5568,20 +5040,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_46.fasta</t>
+          <t>label_UMGS2038_75.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.004224272847048845</v>
+        <v>0.006910256001982548</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001134522766584899</v>
+        <v>2.875643015173966e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9946412043863662</v>
+        <v>0.9930868683550023</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9946412043863662</v>
+        <v>0.9930868683550023</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -5592,20 +5064,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_57.fasta</t>
+          <t>label_UMGS2038_76.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.001324554814217929</v>
+        <v>1.854323543342144e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>2.345962461821822e-05</v>
+        <v>1.567356944520467e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.998651985561164</v>
+        <v>0.9999657831951213</v>
       </c>
       <c r="E55" t="n">
-        <v>0.998651985561164</v>
+        <v>0.9999657831951213</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -5616,20 +5088,20 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_58.fasta</t>
+          <t>label_UMGS2038_80.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.001079391194957561</v>
+        <v>0.0001943123479634911</v>
       </c>
       <c r="C56" t="n">
-        <v>0.001237699884167426</v>
+        <v>0.0001289864608785481</v>
       </c>
       <c r="D56" t="n">
-        <v>0.997682908920875</v>
+        <v>0.999676701191158</v>
       </c>
       <c r="E56" t="n">
-        <v>0.997682908920875</v>
+        <v>0.999676701191158</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -5640,20 +5112,20 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_61.fasta</t>
+          <t>label_UMGS2038_86.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.003128466321801732</v>
+        <v>0.0001531279093342828</v>
       </c>
       <c r="C57" t="n">
-        <v>3.237717871246927e-05</v>
+        <v>5.251899313473587e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9968391564994857</v>
+        <v>0.999794353097531</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9968391564994857</v>
+        <v>0.999794353097531</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -5664,20 +5136,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_67.fasta</t>
+          <t>label_UMGS2038_93.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0008341817440279471</v>
+        <v>0.008690900890290554</v>
       </c>
       <c r="C58" t="n">
-        <v>0.003591492727182287</v>
+        <v>4.067616448161647e-11</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9955743255287898</v>
+        <v>0.9913090990690332</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9955743255287898</v>
+        <v>0.9913090990690332</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -5688,20 +5160,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_72.fasta</t>
+          <t>label_UMGS2038_94.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.008962380400859719</v>
+        <v>0.0001057959678822521</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0007428738087824994</v>
+        <v>3.280103238409262e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9902947457903578</v>
+        <v>0.9998614029997337</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9902947457903578</v>
+        <v>0.9998614029997337</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -5712,20 +5184,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_73.fasta</t>
+          <t>label_UMGS2038_96.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0002423274628945264</v>
+        <v>0.001116589741047473</v>
       </c>
       <c r="C60" t="n">
-        <v>1.742389746480306e-05</v>
+        <v>2.150011665658652e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9997402486396407</v>
+        <v>0.9988812602472869</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9997402486396407</v>
+        <v>0.9988812602472869</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -5736,20 +5208,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_79.fasta</t>
+          <t>label_UMGS2038_18.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.000298057334795959</v>
+        <v>0.003703790777955776</v>
       </c>
       <c r="C61" t="n">
-        <v>9.236362602716284e-07</v>
+        <v>0.001073732497876139</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9997010190289437</v>
+        <v>0.9952224767241681</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9997010190289437</v>
+        <v>0.9952224767241681</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -5760,20 +5232,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_89.fasta</t>
+          <t>label_UMGS2038_23.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0002177472988093166</v>
+        <v>0.003794089758135399</v>
       </c>
       <c r="C62" t="n">
-        <v>9.066894811217822e-06</v>
+        <v>4.932918536029088e-07</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9997731858063794</v>
+        <v>0.9962054169500111</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9997731858063794</v>
+        <v>0.9962054169500111</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -5784,20 +5256,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_9.fasta</t>
+          <t>label_UMGS2038_3.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0005728278622953543</v>
+        <v>0.1911780777034978</v>
       </c>
       <c r="C63" t="n">
-        <v>1.202083365837246e-07</v>
+        <v>0.1572346249610636</v>
       </c>
       <c r="D63" t="n">
-        <v>0.999427051929368</v>
+        <v>0.6515872973354387</v>
       </c>
       <c r="E63" t="n">
-        <v>0.999427051929368</v>
+        <v>0.6515872973354387</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -5808,20 +5280,20 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_97.fasta</t>
+          <t>label_UMGS2038_36.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.000937318644163703</v>
+        <v>0.001349067509430241</v>
       </c>
       <c r="C64" t="n">
-        <v>3.308453809561534e-07</v>
+        <v>6.668245474089661e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9990623505104552</v>
+        <v>0.9986442642450957</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9990623505104552</v>
+        <v>0.9986442642450957</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -5832,20 +5304,20 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_12.fasta</t>
+          <t>label_UMGS2038_41.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8.791274830661404e-05</v>
+        <v>0.002520303770787391</v>
       </c>
       <c r="C65" t="n">
-        <v>9.557624939867595e-05</v>
+        <v>1.022722462537306e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9998165110022946</v>
+        <v>0.9974786735067501</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9998165110022946</v>
+        <v>0.9974786735067501</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -5856,20 +5328,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_2.fasta</t>
+          <t>label_UMGS2038_45.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0001350597888140705</v>
+        <v>0.0001256669456195859</v>
       </c>
       <c r="C66" t="n">
-        <v>0.000858009235571751</v>
+        <v>7.97502813635222e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9990069309756142</v>
+        <v>0.999866358026244</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9990069309756142</v>
+        <v>0.999866358026244</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -5880,20 +5352,20 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_26.fasta</t>
+          <t>label_UMGS2038_50.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7.998012171367719e-05</v>
+        <v>0.0001220280869298111</v>
       </c>
       <c r="C67" t="n">
-        <v>6.527397369271353e-10</v>
+        <v>0.001337993113772347</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9999200192255466</v>
+        <v>0.9985399787992978</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9999200192255466</v>
+        <v>0.9985399787992978</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -5904,20 +5376,20 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_31.fasta</t>
+          <t>label_UMGS2038_59.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0005710164467355944</v>
+        <v>0.0008316604091106156</v>
       </c>
       <c r="C68" t="n">
-        <v>6.409987597322233e-05</v>
+        <v>7.701133435432192e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9993648836772911</v>
+        <v>0.999091328256535</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9993648836772911</v>
+        <v>0.999091328256535</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -5928,20 +5400,20 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_34.fasta</t>
+          <t>label_UMGS2038_62.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4.760729461713156e-05</v>
+        <v>0.0006411308512748136</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0002309817687913257</v>
+        <v>1.90465170445505e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9997214109365916</v>
+        <v>0.9993398226316805</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9997214109365916</v>
+        <v>0.9993398226316805</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -5952,20 +5424,20 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_39.fasta</t>
+          <t>label_UMGS2038_63.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0001198886565858744</v>
+        <v>0.0006561578040307363</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0002373789298744621</v>
+        <v>1.308453301625677e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9996427324135396</v>
+        <v>0.9993307576629531</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9996427324135396</v>
+        <v>0.9993307576629531</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -5976,20 +5448,20 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_44.fasta</t>
+          <t>label_UMGS2038_65.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.0005267243617004203</v>
+        <v>0.001230115369812754</v>
       </c>
       <c r="C71" t="n">
-        <v>6.443577925595544e-06</v>
+        <v>4.478073629477094e-08</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9994668320603739</v>
+        <v>0.998769839849451</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9994668320603739</v>
+        <v>0.998769839849451</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -6000,20 +5472,20 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_48.fasta</t>
+          <t>label_UMGS2038_68.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.001860767073236155</v>
+        <v>0.02991573961553544</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0008466468525303127</v>
+        <v>1.332360770195306e-11</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9972925860742335</v>
+        <v>0.9700842603711409</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9972925860742335</v>
+        <v>0.9700842603711409</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -6024,20 +5496,20 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_52.fasta</t>
+          <t>label_UMGS2038_69.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.002388688845183588</v>
+        <v>0.001331945309839001</v>
       </c>
       <c r="C73" t="n">
-        <v>7.836802836013015e-05</v>
+        <v>4.775092270856641e-07</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9975329431264562</v>
+        <v>0.9986675771809339</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9975329431264562</v>
+        <v>0.9986675771809339</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -6048,20 +5520,20 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_64.fasta</t>
+          <t>label_UMGS2038_82.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0001185451287830012</v>
+        <v>0.001911978267630698</v>
       </c>
       <c r="C74" t="n">
-        <v>6.328110822479797e-05</v>
+        <v>1.144025712100374e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9998181737629922</v>
+        <v>0.9980765814752484</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9998181737629922</v>
+        <v>0.9980765814752484</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -6072,20 +5544,20 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_7.fasta</t>
+          <t>label_UMGS2038_85.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5.269892200075899e-05</v>
+        <v>0.01406277925701465</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0001685775238378888</v>
+        <v>5.332406951280032e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9997787235541614</v>
+        <v>0.9858838966734725</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9997787235541614</v>
+        <v>0.9858838966734725</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -6096,20 +5568,20 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_70.fasta</t>
+          <t>label_UMGS2038_91.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.00162465128621166</v>
+        <v>0.0005423744868435859</v>
       </c>
       <c r="C76" t="n">
-        <v>4.469823560367481e-06</v>
+        <v>0.001235154071739878</v>
       </c>
       <c r="D76" t="n">
-        <v>0.998370878890228</v>
+        <v>0.9982224714414166</v>
       </c>
       <c r="E76" t="n">
-        <v>0.998370878890228</v>
+        <v>0.9982224714414166</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -6120,20 +5592,20 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_75.fasta</t>
+          <t>label_UMGS2038_11.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.006910256001982548</v>
+        <v>0.001335828062971553</v>
       </c>
       <c r="C77" t="n">
-        <v>2.875643015173966e-06</v>
+        <v>1.403299865377828e-07</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9930868683550023</v>
+        <v>0.9986640316070419</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9930868683550023</v>
+        <v>0.9986640316070419</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -6144,20 +5616,20 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_76.fasta</t>
+          <t>label_UMGS2038_17.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.854323543342144e-05</v>
+        <v>8.064494390307081e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>1.567356944520467e-05</v>
+        <v>0.0005531854852361554</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9999657831951213</v>
+        <v>0.9993661695708607</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9999657831951213</v>
+        <v>0.9993661695708607</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -6168,20 +5640,20 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_80.fasta</t>
+          <t>label_UMGS2038_22.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0001943123479634911</v>
+        <v>0.001152235305886357</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0001289864608785481</v>
+        <v>3.428158080068089e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>0.999676701191158</v>
+        <v>0.9988443365360336</v>
       </c>
       <c r="E79" t="n">
-        <v>0.999676701191158</v>
+        <v>0.9988443365360336</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -6192,20 +5664,20 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_86.fasta</t>
+          <t>label_UMGS2038_30.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0001531279093342828</v>
+        <v>0.0007278433297273047</v>
       </c>
       <c r="C80" t="n">
-        <v>5.251899313473587e-05</v>
+        <v>0.0003604002754025137</v>
       </c>
       <c r="D80" t="n">
-        <v>0.999794353097531</v>
+        <v>0.9989117563948702</v>
       </c>
       <c r="E80" t="n">
-        <v>0.999794353097531</v>
+        <v>0.9989117563948702</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -6216,20 +5688,20 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_93.fasta</t>
+          <t>label_UMGS2038_32.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.008690900890290554</v>
+        <v>0.0009524585374766612</v>
       </c>
       <c r="C81" t="n">
-        <v>4.067616448161647e-11</v>
+        <v>7.702679086143123e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9913090990690332</v>
+        <v>0.998970514671662</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9913090990690332</v>
+        <v>0.998970514671662</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -6240,20 +5712,20 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_94.fasta</t>
+          <t>label_UMGS2038_40.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0001057959678822521</v>
+        <v>0.00230110610021836</v>
       </c>
       <c r="C82" t="n">
-        <v>3.280103238409262e-05</v>
+        <v>2.380218827217202e-11</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9998614029997337</v>
+        <v>0.9976988938759795</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9998614029997337</v>
+        <v>0.9976988938759795</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -6264,20 +5736,20 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_96.fasta</t>
+          <t>label_UMGS2038_43.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.001116589741047473</v>
+        <v>0.0003007240281955125</v>
       </c>
       <c r="C83" t="n">
-        <v>2.150011665658652e-06</v>
+        <v>0.0007983183236186775</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9988812602472869</v>
+        <v>0.9989009576481858</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9988812602472869</v>
+        <v>0.9989009576481858</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -6288,20 +5760,20 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_18.fasta</t>
+          <t>label_UMGS2038_53.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.003703790777955776</v>
+        <v>0.001346272969589255</v>
       </c>
       <c r="C84" t="n">
-        <v>0.001073732497876139</v>
+        <v>5.284592783027563e-08</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9952224767241681</v>
+        <v>0.9986536741844828</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9952224767241681</v>
+        <v>0.9986536741844828</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -6312,20 +5784,20 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_23.fasta</t>
+          <t>label_UMGS2038_55.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.003794089758135399</v>
+        <v>0.000235013469250123</v>
       </c>
       <c r="C85" t="n">
-        <v>4.932918536029088e-07</v>
+        <v>0.0001100733663761773</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9962054169500111</v>
+        <v>0.9996549131643736</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9962054169500111</v>
+        <v>0.9996549131643736</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -6336,20 +5808,20 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_3.fasta</t>
+          <t>label_UMGS2038_56.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1911780777034978</v>
+        <v>0.0003443980191406321</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1572346249610636</v>
+        <v>1.906000831545769e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6515872973354387</v>
+        <v>0.9996536959800278</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6515872973354387</v>
+        <v>0.9996536959800278</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -6360,20 +5832,20 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_36.fasta</t>
+          <t>label_UMGS2038_6.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.001349067509430241</v>
+        <v>6.140578755228687e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>6.668245474089661e-06</v>
+        <v>0.001401031913487238</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9986442642450957</v>
+        <v>0.9985375622989604</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9986442642450957</v>
+        <v>0.9985375622989604</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -6384,20 +5856,20 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_41.fasta</t>
+          <t>label_UMGS2038_66.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.002520303770787391</v>
+        <v>0.0006747717560353564</v>
       </c>
       <c r="C88" t="n">
-        <v>1.022722462537306e-06</v>
+        <v>1.767096740695984e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9974786735067501</v>
+        <v>0.9993234611472239</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9974786735067501</v>
+        <v>0.9993234611472239</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -6408,20 +5880,20 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_45.fasta</t>
+          <t>label_UMGS2038_71.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0001256669456195859</v>
+        <v>0.0008414599619397521</v>
       </c>
       <c r="C89" t="n">
-        <v>7.97502813635222e-06</v>
+        <v>4.521506704766119e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>0.999866358026244</v>
+        <v>0.9991540185313554</v>
       </c>
       <c r="E89" t="n">
-        <v>0.999866358026244</v>
+        <v>0.9991540185313554</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -6432,20 +5904,20 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_50.fasta</t>
+          <t>label_UMGS2038_74.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0001220280869298111</v>
+        <v>0.0004408897184101822</v>
       </c>
       <c r="C90" t="n">
-        <v>0.001337993113772347</v>
+        <v>4.663944807077511e-10</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9985399787992978</v>
+        <v>0.9995591098151955</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9985399787992978</v>
+        <v>0.9995591098151955</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -6456,20 +5928,20 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_59.fasta</t>
+          <t>label_UMGS2038_8.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0008316604091106156</v>
+        <v>0.0003800147895576871</v>
       </c>
       <c r="C91" t="n">
-        <v>7.701133435432192e-05</v>
+        <v>4.004969724459549e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>0.999091328256535</v>
+        <v>0.9996159802407178</v>
       </c>
       <c r="E91" t="n">
-        <v>0.999091328256535</v>
+        <v>0.9996159802407178</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -6480,20 +5952,20 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_62.fasta</t>
+          <t>label_UMGS2038_81.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0006411308512748136</v>
+        <v>0.001620224155956232</v>
       </c>
       <c r="C92" t="n">
-        <v>1.90465170445505e-05</v>
+        <v>9.668622790163258e-07</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9993398226316805</v>
+        <v>0.9983788089817648</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9993398226316805</v>
+        <v>0.9983788089817648</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -6504,20 +5976,20 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_63.fasta</t>
+          <t>label_UMGS2038_84.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0006561578040307363</v>
+        <v>0.006640398485777708</v>
       </c>
       <c r="C93" t="n">
-        <v>1.308453301625677e-05</v>
+        <v>1.925165818124308e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9993307576629531</v>
+        <v>0.9933576763484041</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9993307576629531</v>
+        <v>0.9933576763484041</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -6528,20 +6000,20 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_65.fasta</t>
+          <t>label_UMGS2038_92.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.001230115369812754</v>
+        <v>0.0003070423868173212</v>
       </c>
       <c r="C94" t="n">
-        <v>4.478073629477094e-08</v>
+        <v>0.000101454290228275</v>
       </c>
       <c r="D94" t="n">
-        <v>0.998769839849451</v>
+        <v>0.9995915033229544</v>
       </c>
       <c r="E94" t="n">
-        <v>0.998769839849451</v>
+        <v>0.9995915033229544</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -6552,574 +6024,22 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2038_68.fasta</t>
+          <t>label_UMGS2038_95.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.02991573961553544</v>
+        <v>3.035522419051148e-05</v>
       </c>
       <c r="C95" t="n">
-        <v>1.332360770195306e-11</v>
+        <v>2.532851713985281e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9700842603711409</v>
+        <v>0.9999671119240955</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9700842603711409</v>
+        <v>0.9999671119240955</v>
       </c>
       <c r="F95" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_69.fasta</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.001331945309839001</v>
-      </c>
-      <c r="C96" t="n">
-        <v>4.775092270856641e-07</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.9986675771809339</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.9986675771809339</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_82.fasta</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.001911978267630698</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1.144025712100374e-05</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.9980765814752484</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.9980765814752484</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_85.fasta</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.01406277925701465</v>
-      </c>
-      <c r="C98" t="n">
-        <v>5.332406951280032e-05</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.9858838966734725</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.9858838966734725</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_91.fasta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.0005423744868435859</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.001235154071739878</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.9982224714414166</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.9982224714414166</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_11.fasta</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.001335828062971553</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.403299865377828e-07</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.9986640316070419</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.9986640316070419</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_17.fasta</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>8.064494390307081e-05</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.0005531854852361554</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.9993661695708607</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.9993661695708607</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_22.fasta</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.001152235305886357</v>
-      </c>
-      <c r="C102" t="n">
-        <v>3.428158080068089e-06</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.9988443365360336</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.9988443365360336</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_30.fasta</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.0007278433297273047</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.0003604002754025137</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.9989117563948702</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.9989117563948702</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_32.fasta</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.0009524585374766612</v>
-      </c>
-      <c r="C104" t="n">
-        <v>7.702679086143123e-05</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.998970514671662</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.998970514671662</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_40.fasta</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.00230110610021836</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2.380218827217202e-11</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.9976988938759795</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.9976988938759795</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_43.fasta</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.0003007240281955125</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.0007983183236186775</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.9989009576481858</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.9989009576481858</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_53.fasta</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.001346272969589255</v>
-      </c>
-      <c r="C107" t="n">
-        <v>5.284592783027563e-08</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.9986536741844828</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.9986536741844828</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_55.fasta</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0.000235013469250123</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.0001100733663761773</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.9996549131643736</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.9996549131643736</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_56.fasta</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.0003443980191406321</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1.906000831545769e-06</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.9996536959800278</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.9996536959800278</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_6.fasta</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>6.140578755228687e-05</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.001401031913487238</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.9985375622989604</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.9985375622989604</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_66.fasta</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.0006747717560353564</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1.767096740695984e-06</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.9993234611472239</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.9993234611472239</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_71.fasta</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.0008414599619397521</v>
-      </c>
-      <c r="C112" t="n">
-        <v>4.521506704766119e-06</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.9991540185313554</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.9991540185313554</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_74.fasta</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.0004408897184101822</v>
-      </c>
-      <c r="C113" t="n">
-        <v>4.663944807077511e-10</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.9995591098151955</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.9995591098151955</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_8.fasta</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.0003800147895576871</v>
-      </c>
-      <c r="C114" t="n">
-        <v>4.004969724459549e-06</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.9996159802407178</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.9996159802407178</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_81.fasta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.001620224155956232</v>
-      </c>
-      <c r="C115" t="n">
-        <v>9.668622790163258e-07</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.9983788089817648</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.9983788089817648</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_84.fasta</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.006640398485777708</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1.925165818124308e-06</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.9933576763484041</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.9933576763484041</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_92.fasta</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.0003070423868173212</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.000101454290228275</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.9995915033229544</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.9995915033229544</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900557415</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2038_95.fasta</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>3.035522419051148e-05</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2.532851713985281e-06</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.9999671119240955</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.9999671119240955</v>
-      </c>
-      <c r="F118" t="inlineStr">
         <is>
           <t>s__UMGS911 sp900557415</t>
         </is>
